--- a/Titus/Gurobi code/Final/Input/J-Woensdag.xlsx
+++ b/Titus/Gurobi code/Final/Input/J-Woensdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AE25C5-8402-4043-85C2-5EF849627394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C732501-D036-451D-BA35-D118FC32956D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{81AAB8A6-77B4-4035-A42B-3FAAC0B9E123}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{FA53405A-F58E-4793-AEDB-C58197FD2EDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wednesday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9821A3-FFEC-409B-9FAE-AEAAFBD0ED18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0826D0CB-91A0-45EC-AEBA-EEF66506A413}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,13 +480,13 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>3200.9555958671822</v>
+        <v>3201</v>
       </c>
       <c r="C1">
-        <v>2498.3068065304828</v>
+        <v>2499</v>
       </c>
       <c r="D1">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>3630.352078239609</v>
+        <v>3630</v>
       </c>
       <c r="C2">
-        <v>2771.5591134947549</v>
+        <v>2772</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3864.5683413518418</v>
+        <v>3864</v>
       </c>
       <c r="C3">
-        <v>3474.2079028314538</v>
+        <v>3474</v>
       </c>
       <c r="D3">
-        <v>2146.9824118621341</v>
+        <v>2148</v>
       </c>
       <c r="E3">
-        <v>1951.8021926019401</v>
+        <v>1952</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2029.8742803060179</v>
+        <v>2031</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>3630.352078239609</v>
+        <v>3630</v>
       </c>
       <c r="C5">
-        <v>2420.2347188264062</v>
+        <v>2421</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -580,16 +580,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>3825.532297499803</v>
+        <v>3825</v>
       </c>
       <c r="C6">
-        <v>3239.991639719221</v>
+        <v>3240</v>
       </c>
       <c r="D6">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="E6">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3318.0637274232981</v>
+        <v>3318</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>2342.1626311223281</v>
+        <v>2343</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>3161.9195520151429</v>
+        <v>3162</v>
       </c>
       <c r="C10">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>3864.5683413518418</v>
+        <v>3864</v>
       </c>
       <c r="C11">
-        <v>3122.8835081631041</v>
+        <v>3123</v>
       </c>
       <c r="D11">
-        <v>2537.3428503825221</v>
+        <v>2538</v>
       </c>
       <c r="E11">
-        <v>1717.585929489707</v>
+        <v>1718</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2771.5591134947549</v>
+        <v>2772</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>3747.4602097957249</v>
+        <v>3747</v>
       </c>
       <c r="C13">
-        <v>2654.450981938639</v>
+        <v>2655</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2576.3788942345609</v>
+        <v>2577</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2849.631201198833</v>
+        <v>2850</v>
       </c>
       <c r="C16">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>2693.4870257906769</v>
+        <v>2694</v>
       </c>
       <c r="C17">
-        <v>2303.1265872702888</v>
+        <v>2304</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>2264.09054341825</v>
+        <v>2265</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>2771.5591134947549</v>
+        <v>2772</v>
       </c>
       <c r="C20">
-        <v>2654.450981938639</v>
+        <v>2655</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>3161.9195520151429</v>
+        <v>3162</v>
       </c>
       <c r="C21">
-        <v>2303.1265872702888</v>
+        <v>2304</v>
       </c>
       <c r="D21">
-        <v>2225.0544995662121</v>
+        <v>2226</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>3708.4241659436871</v>
+        <v>3708</v>
       </c>
       <c r="C22">
-        <v>2732.5230696427161</v>
+        <v>2733</v>
       </c>
       <c r="D22">
-        <v>2576.3788942345609</v>
+        <v>2577</v>
       </c>
       <c r="E22">
-        <v>1600.4777979335911</v>
+        <v>1601</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>3083.8474643110649</v>
+        <v>3084</v>
       </c>
       <c r="C24">
-        <v>2927.7032889029101</v>
+        <v>2928</v>
       </c>
       <c r="D24">
-        <v>2029.8742803060179</v>
+        <v>2031</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -960,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2888.6672450508709</v>
+        <v>2889</v>
       </c>
       <c r="C25">
-        <v>2810.5951573467942</v>
+        <v>2811</v>
       </c>
       <c r="D25">
-        <v>2771.5591134947549</v>
+        <v>2772</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3708.4241659436871</v>
+        <v>3708</v>
       </c>
       <c r="C26">
-        <v>3669.3881220916478</v>
+        <v>3669</v>
       </c>
       <c r="D26">
-        <v>2693.4870257906769</v>
+        <v>2694</v>
       </c>
       <c r="E26">
-        <v>1795.6580171937851</v>
+        <v>1796</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2810.5951573467942</v>
+        <v>2811</v>
       </c>
       <c r="C27">
-        <v>2732.5230696427161</v>
+        <v>2733</v>
       </c>
       <c r="D27">
-        <v>1951.8021926019401</v>
+        <v>1952</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1951.8021926019401</v>
+        <v>1952</v>
       </c>
       <c r="C28">
         <v>0</v>
